--- a/storage/app/public/vocabs/geologicalsetting/1.2/geologicalsetting_1-2.xlsx
+++ b/storage/app/public/vocabs/geologicalsetting/1.2/geologicalsetting_1-2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>synonyms</t>
   </si>
@@ -428,18 +428,6 @@
     <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_plate_boundary-divergent_tectonic_plate_boundary-rifting-tilted_block_faulting</t>
   </si>
   <si>
-    <t>rift shoulder</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_plate_boundary-divergent_tectonic_plate_boundary-rifting-rift_shoulder</t>
-  </si>
-  <si>
-    <t>rift valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_plate_boundary-divergent_tectonic_plate_boundary-rifting-rift_valley</t>
-  </si>
-  <si>
     <t>mantle exhumation</t>
   </si>
   <si>
@@ -893,6 +881,159 @@
     <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/earths_structure-asthenosphere</t>
   </si>
   <si>
+    <t>tectonic deformation structure</t>
+  </si>
+  <si>
+    <t>#tectonic rock deformation structures#rock deformation structure#rock deformation structures#crust deformation structure#crustal deformation structure#crust deformation structures#crustal deformations structures</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure</t>
+  </si>
+  <si>
+    <t>tectonic fault</t>
+  </si>
+  <si>
+    <t>#tectonic faults#tectonic fracture#tectonic faulting#tectonic fracturing#fault zone#fault zones#seismic fault#aseismic fault#fault slip#fault weakening#fault reactivation#fault reactivating#faults reactivating#slip weakening#fault gouge#fault rock#faultrelatedmaterial#fault rocks#faultrocks#faultrock#natural fault rocks#fault microstructure#faults rock#faults rocks#fault mirror#fault mirrors#fault movement#crustal fault#crustal faults#fault friction#displaced fault#faults in the crust</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault</t>
+  </si>
+  <si>
+    <t>oblique-slip fault</t>
+  </si>
+  <si>
+    <t>#oblique slip fault#oblique slip fault#oblique slip faulting#oblique-slip faults#oblique slip faults</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-oblique-slip_fault</t>
+  </si>
+  <si>
+    <t>reverse fault</t>
+  </si>
+  <si>
+    <t>#reverse faulting#reverse faults</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-reverse_fault</t>
+  </si>
+  <si>
+    <t>scissor fault</t>
+  </si>
+  <si>
+    <t>#scissor faulting#scissor faults</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-scissor_fault</t>
+  </si>
+  <si>
+    <t>strike-slip fault</t>
+  </si>
+  <si>
+    <t>#strike slip fault#strike slip faulting#strike-slip faulting#strike-slip faults#strike slip faults#strikeslip faults#strikeslip fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-strike-slip_fault</t>
+  </si>
+  <si>
+    <t>normal fault</t>
+  </si>
+  <si>
+    <t>#normal faulting#normal faults</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-normal_fault</t>
+  </si>
+  <si>
+    <t>thrust fault</t>
+  </si>
+  <si>
+    <t>#thrust faulting#thrust deformation#thrust displacement#thrust faults#megathrust#megathrusts</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-thrust_fault</t>
+  </si>
+  <si>
+    <t>wrench fault</t>
+  </si>
+  <si>
+    <t>#wrench faulting#wrench faults</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-wrench_fault</t>
+  </si>
+  <si>
+    <t>detachment fault</t>
+  </si>
+  <si>
+    <t>#detachment faulting#detachment faults</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fault-detachment_fault</t>
+  </si>
+  <si>
+    <t>tectonic fold</t>
+  </si>
+  <si>
+    <t>#tectonic folds#tectonic folding</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fold</t>
+  </si>
+  <si>
+    <t>anticline</t>
+  </si>
+  <si>
+    <t>#anticlyne#anti-cline#anti-clyne</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fold-anticline</t>
+  </si>
+  <si>
+    <t>antiform</t>
+  </si>
+  <si>
+    <t>#anti-form</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fold-antiform</t>
+  </si>
+  <si>
+    <t>syncline</t>
+  </si>
+  <si>
+    <t>#synclyne#syn-clyne#syn-cline</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fold-syncline</t>
+  </si>
+  <si>
+    <t>synform</t>
+  </si>
+  <si>
+    <t>#syn-form</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_fold-synform</t>
+  </si>
+  <si>
+    <t>tectonic shear zone</t>
+  </si>
+  <si>
+    <t>#tectonic shear zones</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_shear_zone</t>
+  </si>
+  <si>
+    <t>Riedel shear</t>
+  </si>
+  <si>
+    <t>#riedel shears</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/tectonic_deformation_structure-tectonic_shear_zone-riedel_shear</t>
+  </si>
+  <si>
     <t>extra-terrestrial setting</t>
   </si>
   <si>
@@ -1226,7 +1367,7 @@
     <t>Induced seismicity</t>
   </si>
   <si>
-    <t>#induced earthquake</t>
+    <t>#induced earthquake#induced seismic</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/geologicalsetting/1.2/antropogenic_setting-induced_seismicity</t>
@@ -1583,7 +1724,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,149 +2342,149 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>157</v>
       </c>
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="D62" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="C63" t="s">
-        <v>161</v>
+      <c r="D63" t="s">
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="D64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="D65" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="D66" t="s">
-        <v>170</v>
+      <c r="B66" t="s">
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="D67" t="s">
-        <v>173</v>
+      <c r="C67" t="s">
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="B68" t="s">
-        <v>175</v>
+      <c r="C68" t="s">
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="C69" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="E69" t="s">
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="C70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="C71" t="s">
-        <v>183</v>
-      </c>
-      <c r="E71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="C72" t="s">
-        <v>186</v>
+      <c r="A72" t="s">
+        <v>187</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="C73" t="s">
-        <v>189</v>
+      <c r="B73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" t="s">
+        <v>191</v>
       </c>
       <c r="F73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" t="s">
-        <v>192</v>
+      <c r="C74" t="s">
+        <v>193</v>
       </c>
       <c r="F74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C75" t="s">
         <v>195</v>
       </c>
       <c r="F75" t="s">
@@ -2354,34 +2495,34 @@
       <c r="C76" t="s">
         <v>197</v>
       </c>
+      <c r="E76" t="s">
+        <v>198</v>
+      </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="C77" t="s">
-        <v>199</v>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="C78" t="s">
-        <v>201</v>
-      </c>
-      <c r="E78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" t="s">
         <v>205</v>
       </c>
       <c r="F79" t="s">
@@ -2405,7 +2546,7 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="C82" t="s">
+      <c r="B82" t="s">
         <v>211</v>
       </c>
       <c r="F82" t="s">
@@ -2416,42 +2557,42 @@
       <c r="C83" t="s">
         <v>213</v>
       </c>
+      <c r="E83" t="s">
+        <v>214</v>
+      </c>
       <c r="F83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>215</v>
+      <c r="C84" t="s">
+        <v>216</v>
       </c>
       <c r="F84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="C85" t="s">
-        <v>217</v>
+      <c r="B85" t="s">
+        <v>218</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="C86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="B87" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C87" t="s">
         <v>223</v>
       </c>
       <c r="F87" t="s">
@@ -2460,63 +2601,63 @@
     </row>
     <row r="88" spans="1:8">
       <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="s">
         <v>225</v>
-      </c>
-      <c r="F88" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="C89" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
         <v>227</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E90" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="C90" t="s">
-        <v>157</v>
       </c>
       <c r="F90" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="C91" t="s">
-        <v>155</v>
+      <c r="B91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" t="s">
+        <v>231</v>
       </c>
       <c r="F91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>231</v>
+      <c r="C92" t="s">
+        <v>233</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>234</v>
-      </c>
-      <c r="E93" t="s">
-        <v>235</v>
+      <c r="C93" t="s">
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="C94" t="s">
-        <v>237</v>
-      </c>
-      <c r="E94" t="s">
         <v>238</v>
       </c>
       <c r="F94" t="s">
@@ -2543,45 +2684,45 @@
       <c r="C97" t="s">
         <v>244</v>
       </c>
+      <c r="E97" t="s">
+        <v>245</v>
+      </c>
       <c r="F97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="C98" t="s">
-        <v>246</v>
+      <c r="B98" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" t="s">
+        <v>248</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="C99" t="s">
-        <v>248</v>
+      <c r="B99" t="s">
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F99" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>251</v>
-      </c>
-      <c r="E100" t="s">
-        <v>252</v>
+      <c r="C100" t="s">
+        <v>253</v>
       </c>
       <c r="F100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>254</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C101" t="s">
         <v>255</v>
       </c>
       <c r="F101" t="s">
@@ -2600,45 +2741,45 @@
       <c r="C103" t="s">
         <v>259</v>
       </c>
+      <c r="E103" t="s">
+        <v>260</v>
+      </c>
       <c r="F103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="C104" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="E104" t="s">
+        <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="C105" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F105" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="C106" t="s">
-        <v>266</v>
-      </c>
-      <c r="E106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="C107" t="s">
-        <v>269</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="B107" t="s">
         <v>270</v>
       </c>
       <c r="F107" t="s">
@@ -2654,7 +2795,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>274</v>
       </c>
       <c r="F109" t="s">
@@ -2662,7 +2803,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="C110" t="s">
+      <c r="B110" t="s">
         <v>276</v>
       </c>
       <c r="F110" t="s">
@@ -2678,7 +2819,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>280</v>
       </c>
       <c r="F112" t="s">
@@ -2702,7 +2843,7 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="C115" t="s">
+      <c r="B115" t="s">
         <v>286</v>
       </c>
       <c r="F115" t="s">
@@ -2710,476 +2851,647 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="C116" t="s">
+      <c r="A116" t="s">
         <v>288</v>
       </c>
+      <c r="E116" t="s">
+        <v>289</v>
+      </c>
       <c r="F116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="B117" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="E117" t="s">
+        <v>292</v>
       </c>
       <c r="F117" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>292</v>
+      <c r="C118" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" t="s">
+        <v>295</v>
       </c>
       <c r="F118" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>294</v>
+      <c r="C119" t="s">
+        <v>297</v>
+      </c>
+      <c r="E119" t="s">
+        <v>298</v>
       </c>
       <c r="F119" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>296</v>
+      <c r="C120" t="s">
+        <v>300</v>
+      </c>
+      <c r="E120" t="s">
+        <v>301</v>
       </c>
       <c r="F120" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="B121" t="s">
-        <v>298</v>
+      <c r="C121" t="s">
+        <v>303</v>
+      </c>
+      <c r="E121" t="s">
+        <v>304</v>
       </c>
       <c r="F121" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="C122" t="s">
-        <v>300</v>
+        <v>306</v>
+      </c>
+      <c r="E122" t="s">
+        <v>307</v>
       </c>
       <c r="F122" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="C123" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="E123" t="s">
+        <v>310</v>
       </c>
       <c r="F123" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="C124" t="s">
-        <v>304</v>
+        <v>312</v>
+      </c>
+      <c r="E124" t="s">
+        <v>313</v>
       </c>
       <c r="F124" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="C125" t="s">
-        <v>306</v>
+        <v>315</v>
+      </c>
+      <c r="E125" t="s">
+        <v>316</v>
       </c>
       <c r="F125" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="C126" t="s">
-        <v>308</v>
+      <c r="B126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E126" t="s">
+        <v>319</v>
       </c>
       <c r="F126" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="C127" t="s">
-        <v>310</v>
+        <v>321</v>
+      </c>
+      <c r="E127" t="s">
+        <v>322</v>
       </c>
       <c r="F127" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="B128" t="s">
-        <v>312</v>
+      <c r="C128" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" t="s">
+        <v>325</v>
       </c>
       <c r="F128" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="C129" t="s">
-        <v>314</v>
+        <v>327</v>
+      </c>
+      <c r="E129" t="s">
+        <v>328</v>
       </c>
       <c r="F129" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="C130" t="s">
-        <v>316</v>
+        <v>330</v>
+      </c>
+      <c r="E130" t="s">
+        <v>331</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="D131" t="s">
-        <v>318</v>
+      <c r="B131" t="s">
+        <v>333</v>
+      </c>
+      <c r="E131" t="s">
+        <v>334</v>
       </c>
       <c r="F131" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="D132" t="s">
-        <v>320</v>
+      <c r="C132" t="s">
+        <v>336</v>
+      </c>
+      <c r="E132" t="s">
+        <v>337</v>
       </c>
       <c r="F132" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>322</v>
+      <c r="A133" t="s">
+        <v>339</v>
       </c>
       <c r="F133" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="C134" t="s">
-        <v>324</v>
+      <c r="A134" t="s">
+        <v>341</v>
       </c>
       <c r="F134" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="C135" t="s">
-        <v>326</v>
+      <c r="B135" t="s">
+        <v>343</v>
       </c>
       <c r="F135" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F136" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="C137" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F137" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="C138" t="s">
-        <v>332</v>
-      </c>
-      <c r="E138" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F138" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="C139" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F139" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="C140" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F140" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="C141" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F141" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="C142" t="s">
-        <v>341</v>
-      </c>
-      <c r="E142" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F142" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>344</v>
-      </c>
-      <c r="E143" t="s">
-        <v>345</v>
+      <c r="B143" t="s">
+        <v>359</v>
       </c>
       <c r="F143" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="B144" t="s">
-        <v>347</v>
-      </c>
-      <c r="E144" t="s">
-        <v>348</v>
+      <c r="C144" t="s">
+        <v>361</v>
       </c>
       <c r="F144" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>350</v>
-      </c>
-      <c r="E145" t="s">
-        <v>351</v>
+      <c r="C145" t="s">
+        <v>363</v>
       </c>
       <c r="F145" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>353</v>
-      </c>
-      <c r="E146" t="s">
-        <v>354</v>
+      <c r="D146" t="s">
+        <v>365</v>
       </c>
       <c r="F146" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="B147" t="s">
-        <v>356</v>
-      </c>
-      <c r="E147" t="s">
-        <v>357</v>
+      <c r="D147" t="s">
+        <v>367</v>
       </c>
       <c r="F147" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="C148" t="s">
-        <v>359</v>
+      <c r="B148" t="s">
+        <v>369</v>
       </c>
       <c r="F148" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="C149" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F149" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="C150" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F150" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="C151" t="s">
-        <v>365</v>
-      </c>
-      <c r="E151" t="s">
-        <v>366</v>
+      <c r="B151" t="s">
+        <v>375</v>
       </c>
       <c r="F151" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="C152" t="s">
-        <v>368</v>
-      </c>
-      <c r="E152" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F152" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="C153" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E153" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F153" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="C154" t="s">
-        <v>374</v>
-      </c>
-      <c r="E154" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F154" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="C155" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F155" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="C156" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F156" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>381</v>
+      <c r="C157" t="s">
+        <v>388</v>
       </c>
       <c r="E157" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F157" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="C158" t="s">
-        <v>384</v>
+      <c r="A158" t="s">
+        <v>391</v>
       </c>
       <c r="E158" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F158" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="B159" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E159" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F159" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="C160" t="s">
-        <v>390</v>
+      <c r="B160" t="s">
+        <v>397</v>
       </c>
       <c r="E160" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F160" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="C161" t="s">
-        <v>393</v>
+      <c r="B161" t="s">
+        <v>400</v>
       </c>
       <c r="E161" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F161" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="C162" t="s">
-        <v>396</v>
+      <c r="B162" t="s">
+        <v>403</v>
+      </c>
+      <c r="E162" t="s">
+        <v>404</v>
       </c>
       <c r="F162" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="C163" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F163" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="C164" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F164" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>402</v>
-      </c>
-      <c r="E165" t="s">
-        <v>403</v>
+      <c r="C165" t="s">
+        <v>410</v>
       </c>
       <c r="F165" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>405</v>
+      <c r="C166" t="s">
+        <v>412</v>
       </c>
       <c r="E166" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F166" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="C167" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E167" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F167" t="s">
-        <v>410</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="C168" t="s">
+        <v>418</v>
+      </c>
+      <c r="E168" t="s">
+        <v>419</v>
+      </c>
+      <c r="F168" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="C169" t="s">
+        <v>421</v>
+      </c>
+      <c r="E169" t="s">
+        <v>422</v>
+      </c>
+      <c r="F169" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="C170" t="s">
+        <v>424</v>
+      </c>
+      <c r="F170" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="C171" t="s">
+        <v>426</v>
+      </c>
+      <c r="F171" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>428</v>
+      </c>
+      <c r="E172" t="s">
+        <v>429</v>
+      </c>
+      <c r="F172" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="C173" t="s">
+        <v>431</v>
+      </c>
+      <c r="E173" t="s">
+        <v>432</v>
+      </c>
+      <c r="F173" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>434</v>
+      </c>
+      <c r="E174" t="s">
+        <v>435</v>
+      </c>
+      <c r="F174" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="C175" t="s">
+        <v>437</v>
+      </c>
+      <c r="E175" t="s">
+        <v>438</v>
+      </c>
+      <c r="F175" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="C176" t="s">
+        <v>440</v>
+      </c>
+      <c r="E176" t="s">
+        <v>441</v>
+      </c>
+      <c r="F176" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="C177" t="s">
+        <v>443</v>
+      </c>
+      <c r="F177" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="C178" t="s">
+        <v>445</v>
+      </c>
+      <c r="F178" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="C179" t="s">
+        <v>447</v>
+      </c>
+      <c r="F179" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>449</v>
+      </c>
+      <c r="E180" t="s">
+        <v>450</v>
+      </c>
+      <c r="F180" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>452</v>
+      </c>
+      <c r="E181" t="s">
+        <v>453</v>
+      </c>
+      <c r="F181" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="C182" t="s">
+        <v>455</v>
+      </c>
+      <c r="E182" t="s">
+        <v>456</v>
+      </c>
+      <c r="F182" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
